--- a/biology/Zoologie/Conus_troendlei/Conus_troendlei.xlsx
+++ b/biology/Zoologie/Conus_troendlei/Conus_troendlei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus troendlei est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille atteint 17 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans l'océan Pacifique au large des îles Marquises.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est endémique aux îles Marquises et n'a été décrite que récemment à partir de spécimens dragués. On ne pense pas qu'elle soit confrontée à des menaces majeures, cependant en raison du peu de données disponibles, elle est inscrite dans la catégorie Données insuffisantes[1].
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est endémique aux îles Marquises et n'a été décrite que récemment à partir de spécimens dragués. On ne pense pas qu'elle soit confrontée à des menaces majeures, cependant en raison du peu de données disponibles, elle est inscrite dans la catégorie Données insuffisantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_troendlei</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_troendlei</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus troendlei a été décrite pour la première fois en 2008 par les malacologistes Robert G. Moolenbeek (d), Arnold Zandbergen et Philippe Bouchet dans « Vita Malacologica »[2],[3].
-Synonymes
-Conus (Splinoconus) troendlei Moolenbeek, Zandbergen &amp; Bouchet, 2008 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus troendlei a été décrite pour la première fois en 2008 par les malacologistes Robert G. Moolenbeek (d), Arnold Zandbergen et Philippe Bouchet dans « Vita Malacologica »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_troendlei</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_troendlei</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Splinoconus) troendlei Moolenbeek, Zandbergen &amp; Bouchet, 2008 · appellation alternative
 Kioconus (Isoconus) troendlei (Moolenbeek, Zandbergen &amp; Bouchet, 2008) · non accepté
 Stellaconus troendlei (Moolenbeek, Zandbergen &amp; Bouchet, 2008) · non accepté</t>
         </is>
